--- a/jQuery/Final/Preject_Final.xlsx
+++ b/jQuery/Final/Preject_Final.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Group" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Click button Add go to page register</t>
   </si>
@@ -36,6 +37,18 @@
   </si>
   <si>
     <t>Init home page</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Name _1</t>
+  </si>
+  <si>
+    <t>Name _2</t>
   </si>
 </sst>
 </file>
@@ -52,15 +65,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -68,12 +87,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -543,4 +611,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/jQuery/Final/Preject_Final.xlsx
+++ b/jQuery/Final/Preject_Final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pr_FE\FE11\jQuery\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE11\jQuery\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>Group Name</t>
   </si>
   <si>
-    <t>Name _1</t>
-  </si>
-  <si>
-    <t>Name _2</t>
+    <t>Bich Ni</t>
+  </si>
+  <si>
+    <t>Thanh Ngan</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -135,16 +135,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,24 +585,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>2</v>
       </c>
@@ -618,61 +618,62 @@
   <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>

--- a/jQuery/Final/Preject_Final.xlsx
+++ b/jQuery/Final/Preject_Final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE11\jQuery\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\FE11\jQuery\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5E4DE0-D6E2-42CB-A9AF-CDECC02BE3D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Click button Add go to page register</t>
   </si>
@@ -49,12 +50,21 @@
   </si>
   <si>
     <t>Thanh Ngan</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Sơn</t>
+  </si>
+  <si>
+    <t>Lê Văn Hoài</t>
+  </si>
+  <si>
+    <t>Hồ Văn Tú</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,11 +138,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -142,9 +163,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,7 +200,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -214,7 +244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -252,7 +288,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -290,7 +332,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -578,12 +626,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -614,17 +660,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -650,16 +694,24 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -678,8 +730,9 @@
       <c r="C12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/jQuery/Final/Preject_Final.xlsx
+++ b/jQuery/Final/Preject_Final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\FE11\jQuery\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\FE11\jQuery\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5E4DE0-D6E2-42CB-A9AF-CDECC02BE3D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Click button Add go to page register</t>
   </si>
@@ -59,12 +58,18 @@
   </si>
   <si>
     <t>Hồ Văn Tú</t>
+  </si>
+  <si>
+    <t>Phan Ngọc Bình</t>
+  </si>
+  <si>
+    <t>Lê Thanh Tân</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -165,6 +170,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +637,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -660,10 +671,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -714,12 +727,18 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -730,9 +749,10 @@
       <c r="C12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/jQuery/Final/Preject_Final.xlsx
+++ b/jQuery/Final/Preject_Final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\FE11\jQuery\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintoshhd/Documents/GitHub/FE11/jQuery/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F24D3-073B-5A48-A104-1E76EC0F03B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22280" windowHeight="13180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Click button Add go to page register</t>
   </si>
@@ -64,12 +65,18 @@
   </si>
   <si>
     <t>Lê Thanh Tân</t>
+  </si>
+  <si>
+    <t>Lê Quý Đô</t>
+  </si>
+  <si>
+    <t>Trần Quang Phong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,29 +644,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B95"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>2</v>
       </c>
@@ -671,20 +678,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -692,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -700,13 +707,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -714,19 +721,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>3</v>
       </c>
@@ -734,25 +741,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/jQuery/Final/Preject_Final.xlsx
+++ b/jQuery/Final/Preject_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintoshhd/Documents/GitHub/FE11/jQuery/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE11\jQuery\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F24D3-073B-5A48-A104-1E76EC0F03B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA19563-9C48-4C23-A2A6-A9A3FDEEB450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22280" windowHeight="13180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Click button Add go to page register</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Trần Quang Phong</t>
+  </si>
+  <si>
+    <t>Phạm Đình Hoài</t>
+  </si>
+  <si>
+    <t>Huỳnh Kim Sơn</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,24 +655,24 @@
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>2</v>
       </c>
@@ -679,19 +685,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:C12"/>
+  <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -699,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -707,13 +713,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -721,19 +727,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>3</v>
       </c>
@@ -741,13 +747,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>4</v>
       </c>
@@ -755,14 +761,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B10"/>

--- a/jQuery/Final/Preject_Final.xlsx
+++ b/jQuery/Final/Preject_Final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FE11\jQuery\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA19563-9C48-4C23-A2A6-A9A3FDEEB450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Click button Add go to page register</t>
   </si>
@@ -77,12 +76,18 @@
   </si>
   <si>
     <t>Huỳnh Kim Sơn</t>
+  </si>
+  <si>
+    <t>Phạm đức việt</t>
+  </si>
+  <si>
+    <t>lý duy vũ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,6 +181,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -184,15 +195,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,29 +655,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B95"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>2</v>
       </c>
@@ -684,20 +689,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -705,84 +710,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B8"/>
